--- a/parameter_files/de_dg_gw_upper.xlsx
+++ b/parameter_files/de_dg_gw_upper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EEA047-ACB8-42B4-BFCF-3E842D6C1E2B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC075383-1E5D-4A86-BC08-36899E780EA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
   </bookViews>
@@ -35,24 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>small growers to gw</t>
-  </si>
-  <si>
-    <t>large growers to gw</t>
-  </si>
-  <si>
-    <t>small growers (white area) to gw</t>
-  </si>
-  <si>
-    <t>large growers (white area) to gw</t>
-  </si>
-  <si>
-    <t>rural communities to gw</t>
-  </si>
-  <si>
-    <t>municipalities to gw</t>
-  </si>
-  <si>
     <t>Bureau of Reclamation</t>
   </si>
   <si>
@@ -138,13 +120,31 @@
   </si>
   <si>
     <t>environmental orgs</t>
+  </si>
+  <si>
+    <t>rural communities</t>
+  </si>
+  <si>
+    <t>small growers</t>
+  </si>
+  <si>
+    <t>investor growers</t>
+  </si>
+  <si>
+    <t>small growers (white area)</t>
+  </si>
+  <si>
+    <t>investor growers (white area)</t>
+  </si>
+  <si>
+    <t>municipalities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,30 +227,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,6 +293,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -329,31 +324,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,43 +666,43 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8"/>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
+    <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6"/>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -715,10 +710,10 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -726,10 +721,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -737,10 +732,10 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -748,10 +743,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -759,10 +754,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" s="2"/>
@@ -772,10 +767,10 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -783,10 +778,10 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -794,15 +789,15 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>34</v>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -810,10 +805,10 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6"/>
+      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -821,10 +816,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -832,10 +827,10 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6"/>
+      <c r="A14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -843,10 +838,10 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="A15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -854,10 +849,10 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6"/>
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -865,10 +860,10 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6"/>
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -876,10 +871,10 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6"/>
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -887,10 +882,10 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4">
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
@@ -900,10 +895,10 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7"/>
+      <c r="A20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -911,10 +906,10 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="6"/>
+      <c r="A21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
@@ -922,10 +917,10 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5">
         <v>0.5</v>
       </c>
       <c r="C22" s="2"/>
@@ -935,10 +930,10 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="2"/>
@@ -948,10 +943,10 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6"/>
+      <c r="A24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -959,10 +954,10 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="6"/>
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -970,10 +965,10 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="6"/>
+      <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -981,10 +976,10 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="6"/>
+      <c r="A27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -992,10 +987,10 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1003,10 +998,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="6"/>
+      <c r="A29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
